--- a/biology/Médecine/Liste_d'organisations_de_la_sclérose_en_plaques/Liste_d'organisations_de_la_sclérose_en_plaques.xlsx
+++ b/biology/Médecine/Liste_d'organisations_de_la_sclérose_en_plaques/Liste_d'organisations_de_la_sclérose_en_plaques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27organisations_de_la_scl%C3%A9rose_en_plaques</t>
+          <t>Liste_d'organisations_de_la_sclérose_en_plaques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des organisations de la sclérose en plaques dans différents pays du monde
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27organisations_de_la_scl%C3%A9rose_en_plaques</t>
+          <t>Liste_d'organisations_de_la_sclérose_en_plaques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Fédération internationale de la sclérose en plaques
 Surmonter la sclérose en plaques</t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27organisations_de_la_scl%C3%A9rose_en_plaques</t>
+          <t>Liste_d'organisations_de_la_sclérose_en_plaques</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Australie
-MS Australia
+          <t>Australie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>MS Australia
 Surmonter la sclérose en plaques</t>
         </is>
       </c>
@@ -556,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27organisations_de_la_scl%C3%A9rose_en_plaques</t>
+          <t>Liste_d'organisations_de_la_sclérose_en_plaques</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,15 +595,15 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>France
-Association française des sclérosés en plaques
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Association française des sclérosés en plaques
 Fondation ARSEP pour la recherche sur la sclérose en plaques
-Ligue française contre la sclérose en plaques
-Royaume-Uni
-Société de la sclérose en plaques de Grande-Bretagne
-Multiple Sclerosis Trust
-Shift.ms
-Surmonter la sclérose en plaques</t>
+Ligue française contre la sclérose en plaques</t>
         </is>
       </c>
     </row>
@@ -594,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27organisations_de_la_scl%C3%A9rose_en_plaques</t>
+          <t>Liste_d'organisations_de_la_sclérose_en_plaques</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,15 +628,93 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Société de la sclérose en plaques de Grande-Bretagne
+Multiple Sclerosis Trust
+Shift.ms
+Surmonter la sclérose en plaques</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_d'organisations_de_la_sclérose_en_plaques</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27organisations_de_la_scl%C3%A9rose_en_plaques</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Amérique du Nord</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Canada
-Société canadienne de la sclérose en plaques
-États-Unis
-Fly for MS (en)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Société canadienne de la sclérose en plaques</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_d'organisations_de_la_sclérose_en_plaques</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27organisations_de_la_scl%C3%A9rose_en_plaques</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Amérique du Nord</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Fly for MS (en)
 Fondation de la sclérose en plaques
 Myelin Repair Foundation (en)
 Société nationale de la sclérose en plaques (en)
